--- a/lowe/edd/data/HANF$HWS.xlsx
+++ b/lowe/edd/data/HANF$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1340,14 +1340,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH47"/>
+  <dimension ref="A1:JI47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1357,12 +1357,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1390,12 +1390,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2210,11 +2210,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3015,10 +3018,13 @@
         <v>56500</v>
       </c>
       <c r="JH9" s="11">
-        <v>55900</v>
+        <v>56400</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>56300</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3819,10 +3825,13 @@
         <v>51100</v>
       </c>
       <c r="JH10" s="11">
-        <v>50800</v>
+        <v>51300</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>51900</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4625,8 +4634,11 @@
       <c r="JH11" s="11">
         <v>5100</v>
       </c>
+      <c r="JI11" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5427,10 +5439,13 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="JH12" s="12">
-        <v>9.0999999999999998E-2</v>
+        <v>0.09</v>
+      </c>
+      <c r="JI12" s="12">
+        <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6231,10 +6246,13 @@
         <v>47000</v>
       </c>
       <c r="JH13" s="11">
-        <v>47100</v>
+        <v>47600</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>47700</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7037,8 +7055,11 @@
       <c r="JH14" s="11">
         <v>7600</v>
       </c>
+      <c r="JI14" s="11">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7839,10 +7860,13 @@
         <v>39300</v>
       </c>
       <c r="JH15" s="11">
-        <v>39500</v>
+        <v>40000</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>40200</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8643,10 +8667,13 @@
         <v>25600</v>
       </c>
       <c r="JH16" s="11">
-        <v>25700</v>
+        <v>26200</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>26000</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9449,8 +9476,11 @@
       <c r="JH17" s="11">
         <v>6100</v>
       </c>
+      <c r="JI17" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10253,8 +10283,11 @@
       <c r="JH18" s="11">
         <v>1000</v>
       </c>
+      <c r="JI18" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11057,8 +11090,11 @@
       <c r="JH19" s="11">
         <v>5100</v>
       </c>
+      <c r="JI19" s="11">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>21</v>
       </c>
@@ -11859,10 +11895,13 @@
         <v>33300</v>
       </c>
       <c r="JH20" s="11">
-        <v>33400</v>
+        <v>33900</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>34200</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>22</v>
       </c>
@@ -12663,10 +12702,13 @@
         <v>19600</v>
       </c>
       <c r="JH21" s="11">
-        <v>19600</v>
+        <v>20100</v>
+      </c>
+      <c r="JI21" s="11">
+        <v>20000</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -13469,8 +13511,11 @@
       <c r="JH22" s="11">
         <v>6300</v>
       </c>
+      <c r="JI22" s="11">
+        <v>6300</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -14273,8 +14318,11 @@
       <c r="JH23" s="11">
         <v>700</v>
       </c>
+      <c r="JI23" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -15077,8 +15125,11 @@
       <c r="JH24" s="11">
         <v>3900</v>
       </c>
+      <c r="JI24" s="11">
+        <v>3900</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>29</v>
       </c>
@@ -15881,8 +15932,11 @@
       <c r="JH25" s="11">
         <v>1700</v>
       </c>
+      <c r="JI25" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>30</v>
       </c>
@@ -16685,8 +16739,11 @@
       <c r="JH26" s="11">
         <v>100</v>
       </c>
+      <c r="JI26" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>31</v>
       </c>
@@ -17489,8 +17546,11 @@
       <c r="JH27" s="11">
         <v>900</v>
       </c>
+      <c r="JI27" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>34</v>
       </c>
@@ -18293,8 +18353,11 @@
       <c r="JH28" s="11">
         <v>1300</v>
       </c>
+      <c r="JI28" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>35</v>
       </c>
@@ -19095,10 +19158,13 @@
         <v>6300</v>
       </c>
       <c r="JH29" s="11">
+        <v>6400</v>
+      </c>
+      <c r="JI29" s="11">
         <v>6300</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>36</v>
       </c>
@@ -19899,10 +19965,13 @@
         <v>4000</v>
       </c>
       <c r="JH30" s="11">
-        <v>4000</v>
+        <v>4400</v>
+      </c>
+      <c r="JI30" s="11">
+        <v>4500</v>
       </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>37</v>
       </c>
@@ -20705,8 +20774,11 @@
       <c r="JH31" s="11">
         <v>700</v>
       </c>
+      <c r="JI31" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>38</v>
       </c>
@@ -21509,8 +21581,11 @@
       <c r="JH32" s="11">
         <v>13800</v>
       </c>
+      <c r="JI32" s="11">
+        <v>14200</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>39</v>
       </c>
@@ -22313,8 +22388,11 @@
       <c r="JH33" s="11">
         <v>1300</v>
       </c>
+      <c r="JI33" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>40</v>
       </c>
@@ -23117,8 +23195,11 @@
       <c r="JH34" s="11">
         <v>12500</v>
       </c>
+      <c r="JI34" s="11">
+        <v>12900</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>41</v>
       </c>
@@ -23921,8 +24002,11 @@
       <c r="JH35" s="11">
         <v>5200</v>
       </c>
+      <c r="JI35" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>42</v>
       </c>
@@ -24725,8 +24809,11 @@
       <c r="JH36" s="11">
         <v>7300</v>
       </c>
+      <c r="JI36" s="11">
+        <v>7700</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>44</v>
       </c>
@@ -25529,8 +25616,11 @@
       <c r="JH37" s="11">
         <v>3600</v>
       </c>
+      <c r="JI37" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>47</v>
       </c>
@@ -26333,8 +26423,11 @@
       <c r="JH38" s="11">
         <v>1500</v>
       </c>
+      <c r="JI38" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>99</v>
       </c>
@@ -26347,7 +26440,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
@@ -26360,7 +26453,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>100</v>
       </c>
@@ -26373,7 +26466,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>101</v>
       </c>
@@ -26386,7 +26479,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>102</v>
       </c>
@@ -26399,7 +26492,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>103</v>
       </c>
@@ -26412,7 +26505,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>104</v>
       </c>
@@ -26425,7 +26518,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>105</v>
       </c>

--- a/lowe/edd/data/HANF$HWS.xlsx
+++ b/lowe/edd/data/HANF$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI47"/>
+  <dimension ref="A1:JJ47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,12 +1357,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1390,12 +1390,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2213,11 +2213,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3021,10 +3024,13 @@
         <v>56400</v>
       </c>
       <c r="JI9" s="11">
-        <v>56300</v>
+        <v>56200</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>56200</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3828,10 +3834,13 @@
         <v>51300</v>
       </c>
       <c r="JI10" s="11">
-        <v>51900</v>
+        <v>51700</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>51800</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4637,8 +4646,11 @@
       <c r="JI11" s="11">
         <v>4500</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5442,10 +5454,13 @@
         <v>0.09</v>
       </c>
       <c r="JI12" s="12">
-        <v>0.08</v>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6251,8 +6266,11 @@
       <c r="JI13" s="11">
         <v>47700</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>47900</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7058,8 +7076,11 @@
       <c r="JI14" s="11">
         <v>7500</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>7600</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7865,8 +7886,11 @@
       <c r="JI15" s="11">
         <v>40200</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>40300</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8672,8 +8696,11 @@
       <c r="JI16" s="11">
         <v>26000</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>26000</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9479,8 +9506,11 @@
       <c r="JI17" s="11">
         <v>6000</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>5700</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10286,8 +10316,11 @@
       <c r="JI18" s="11">
         <v>1000</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11093,8 +11126,11 @@
       <c r="JI19" s="11">
         <v>5000</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>21</v>
       </c>
@@ -11900,8 +11936,11 @@
       <c r="JI20" s="11">
         <v>34200</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>34600</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>22</v>
       </c>
@@ -12707,8 +12746,11 @@
       <c r="JI21" s="11">
         <v>20000</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>20300</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -13514,8 +13556,11 @@
       <c r="JI22" s="11">
         <v>6300</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>6500</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -14321,8 +14366,11 @@
       <c r="JI23" s="11">
         <v>700</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -15128,8 +15176,11 @@
       <c r="JI24" s="11">
         <v>3900</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>29</v>
       </c>
@@ -15935,8 +15986,11 @@
       <c r="JI25" s="11">
         <v>1700</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>30</v>
       </c>
@@ -16742,8 +16796,11 @@
       <c r="JI26" s="11">
         <v>100</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>31</v>
       </c>
@@ -17547,10 +17604,13 @@
         <v>900</v>
       </c>
       <c r="JI27" s="11">
-        <v>800</v>
+        <v>900</v>
+      </c>
+      <c r="JJ27" s="11">
+        <v>900</v>
       </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>34</v>
       </c>
@@ -18356,8 +18416,11 @@
       <c r="JI28" s="11">
         <v>1300</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>35</v>
       </c>
@@ -19163,8 +19226,11 @@
       <c r="JI29" s="11">
         <v>6300</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>6300</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>36</v>
       </c>
@@ -19968,10 +20034,13 @@
         <v>4400</v>
       </c>
       <c r="JI30" s="11">
+        <v>4400</v>
+      </c>
+      <c r="JJ30" s="11">
         <v>4500</v>
       </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>37</v>
       </c>
@@ -20777,8 +20846,11 @@
       <c r="JI31" s="11">
         <v>700</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>38</v>
       </c>
@@ -21584,8 +21656,11 @@
       <c r="JI32" s="11">
         <v>14200</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>14300</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>39</v>
       </c>
@@ -22391,8 +22466,11 @@
       <c r="JI33" s="11">
         <v>1300</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>40</v>
       </c>
@@ -23198,8 +23276,11 @@
       <c r="JI34" s="11">
         <v>12900</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>13000</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>41</v>
       </c>
@@ -24005,8 +24086,11 @@
       <c r="JI35" s="11">
         <v>5200</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>42</v>
       </c>
@@ -24812,8 +24896,11 @@
       <c r="JI36" s="11">
         <v>7700</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>7800</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>44</v>
       </c>
@@ -25619,8 +25706,11 @@
       <c r="JI37" s="11">
         <v>3600</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>47</v>
       </c>
@@ -26426,8 +26516,11 @@
       <c r="JI38" s="11">
         <v>1500</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>99</v>
       </c>
@@ -26440,7 +26533,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
@@ -26453,7 +26546,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>100</v>
       </c>
@@ -26466,7 +26559,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>101</v>
       </c>
@@ -26479,7 +26572,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>102</v>
       </c>
@@ -26492,7 +26585,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>103</v>
       </c>
@@ -26505,7 +26598,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>104</v>
       </c>
@@ -26518,7 +26611,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>105</v>
       </c>

--- a/lowe/edd/data/HANF$HWS.xlsx
+++ b/lowe/edd/data/HANF$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ47"/>
+  <dimension ref="A1:JL47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,12 +1357,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1390,12 +1390,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2216,11 +2216,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3027,10 +3033,16 @@
         <v>56200</v>
       </c>
       <c r="JJ9" s="11">
-        <v>56200</v>
+        <v>56300</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>55900</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>56300</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3837,10 +3849,16 @@
         <v>51700</v>
       </c>
       <c r="JJ10" s="11">
+        <v>51900</v>
+      </c>
+      <c r="JK10" s="11">
         <v>51800</v>
       </c>
+      <c r="JL10" s="11">
+        <v>52100</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4649,8 +4667,14 @@
       <c r="JJ11" s="11">
         <v>4400</v>
       </c>
+      <c r="JK11" s="11">
+        <v>4100</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5457,10 +5481,16 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="JJ12" s="12">
-        <v>7.9000000000000001E-2</v>
+        <v>7.8E-2</v>
+      </c>
+      <c r="JK12" s="12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6267,10 +6297,16 @@
         <v>47700</v>
       </c>
       <c r="JJ13" s="11">
-        <v>47900</v>
+        <v>48000</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>47700</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>47400</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7079,8 +7115,14 @@
       <c r="JJ14" s="11">
         <v>7600</v>
       </c>
+      <c r="JK14" s="11">
+        <v>7200</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>7000</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7887,10 +7929,16 @@
         <v>40200</v>
       </c>
       <c r="JJ15" s="11">
-        <v>40300</v>
+        <v>40400</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>40500</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>40400</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8697,10 +8745,16 @@
         <v>26000</v>
       </c>
       <c r="JJ16" s="11">
-        <v>26000</v>
+        <v>26100</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>26100</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>26100</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9507,10 +9561,16 @@
         <v>6000</v>
       </c>
       <c r="JJ17" s="11">
-        <v>5700</v>
+        <v>5800</v>
+      </c>
+      <c r="JK17" s="11">
+        <v>5600</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10319,8 +10379,14 @@
       <c r="JJ18" s="11">
         <v>1000</v>
       </c>
+      <c r="JK18" s="11">
+        <v>1100</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11127,10 +11193,16 @@
         <v>5000</v>
       </c>
       <c r="JJ19" s="11">
-        <v>4700</v>
+        <v>4800</v>
+      </c>
+      <c r="JK19" s="11">
+        <v>4500</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>4400</v>
       </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>21</v>
       </c>
@@ -11939,8 +12011,14 @@
       <c r="JJ20" s="11">
         <v>34600</v>
       </c>
+      <c r="JK20" s="11">
+        <v>34900</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>35000</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>22</v>
       </c>
@@ -12749,8 +12827,14 @@
       <c r="JJ21" s="11">
         <v>20300</v>
       </c>
+      <c r="JK21" s="11">
+        <v>20500</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>20700</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -13559,8 +13643,14 @@
       <c r="JJ22" s="11">
         <v>6500</v>
       </c>
+      <c r="JK22" s="11">
+        <v>6600</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>6700</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -14369,8 +14459,14 @@
       <c r="JJ23" s="11">
         <v>700</v>
       </c>
+      <c r="JK23" s="11">
+        <v>700</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -15179,8 +15275,14 @@
       <c r="JJ24" s="11">
         <v>4000</v>
       </c>
+      <c r="JK24" s="11">
+        <v>4100</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>29</v>
       </c>
@@ -15989,8 +16091,14 @@
       <c r="JJ25" s="11">
         <v>1800</v>
       </c>
+      <c r="JK25" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>30</v>
       </c>
@@ -16799,8 +16907,14 @@
       <c r="JJ26" s="11">
         <v>100</v>
       </c>
+      <c r="JK26" s="11">
+        <v>100</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>31</v>
       </c>
@@ -17609,8 +17723,14 @@
       <c r="JJ27" s="11">
         <v>900</v>
       </c>
+      <c r="JK27" s="11">
+        <v>900</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>900</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>34</v>
       </c>
@@ -18419,8 +18539,14 @@
       <c r="JJ28" s="11">
         <v>1300</v>
       </c>
+      <c r="JK28" s="11">
+        <v>1300</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>35</v>
       </c>
@@ -19229,8 +19355,14 @@
       <c r="JJ29" s="11">
         <v>6300</v>
       </c>
+      <c r="JK29" s="11">
+        <v>6400</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>6400</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>36</v>
       </c>
@@ -20039,8 +20171,14 @@
       <c r="JJ30" s="11">
         <v>4500</v>
       </c>
+      <c r="JK30" s="11">
+        <v>4500</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>37</v>
       </c>
@@ -20849,8 +20987,14 @@
       <c r="JJ31" s="11">
         <v>700</v>
       </c>
+      <c r="JK31" s="11">
+        <v>700</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>38</v>
       </c>
@@ -21659,8 +21803,14 @@
       <c r="JJ32" s="11">
         <v>14300</v>
       </c>
+      <c r="JK32" s="11">
+        <v>14400</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>14300</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>39</v>
       </c>
@@ -22469,8 +22619,14 @@
       <c r="JJ33" s="11">
         <v>1300</v>
       </c>
+      <c r="JK33" s="11">
+        <v>1300</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>40</v>
       </c>
@@ -23279,8 +23435,14 @@
       <c r="JJ34" s="11">
         <v>13000</v>
       </c>
+      <c r="JK34" s="11">
+        <v>13100</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>13000</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>41</v>
       </c>
@@ -24089,8 +24251,14 @@
       <c r="JJ35" s="11">
         <v>5200</v>
       </c>
+      <c r="JK35" s="11">
+        <v>5200</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>42</v>
       </c>
@@ -24899,8 +25067,14 @@
       <c r="JJ36" s="11">
         <v>7800</v>
       </c>
+      <c r="JK36" s="11">
+        <v>7900</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>7900</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>44</v>
       </c>
@@ -25709,8 +25883,14 @@
       <c r="JJ37" s="11">
         <v>3600</v>
       </c>
+      <c r="JK37" s="11">
+        <v>3600</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>47</v>
       </c>
@@ -26519,8 +26699,14 @@
       <c r="JJ38" s="11">
         <v>1400</v>
       </c>
+      <c r="JK38" s="11">
+        <v>1500</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>99</v>
       </c>
@@ -26533,7 +26719,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
@@ -26546,7 +26732,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>100</v>
       </c>
@@ -26559,7 +26745,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>101</v>
       </c>
@@ -26572,7 +26758,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>102</v>
       </c>
@@ -26585,7 +26771,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>103</v>
       </c>
@@ -26598,7 +26784,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>104</v>
       </c>
@@ -26611,7 +26797,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>105</v>
       </c>
